--- a/MASTER_MS5673.xlsx
+++ b/MASTER_MS5673.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer_CA\★ Strim---MS Helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D856D422-C846-4EB1-A3A3-E962A54543E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1D789E-4A25-4289-A201-4D9C06EFE9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
   </bookViews>
@@ -8810,7 +8810,7 @@
   <dimension ref="A1:K1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A971" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C994" sqref="C994"/>
+      <selection activeCell="C999" sqref="C999"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
